--- a/VoelkenrathMA/query_results/query_5_results.xlsx
+++ b/VoelkenrathMA/query_results/query_5_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,26 @@
           <t>LinkML-file</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature [K]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pressure [Pa]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocity [m/s]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Turnover CO2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -456,17 +476,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12560&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12558&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12561&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12559&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>273</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[0.23014681776527568]</t>
         </is>
       </c>
     </row>
@@ -476,17 +510,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11514&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12560&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11515&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12561&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>273</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[0.23259718329292703]</t>
         </is>
       </c>
     </row>
@@ -509,6 +557,20 @@
           <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12563&amp;version=DRAFT</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>273</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[0.044358884779051935]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -516,17 +578,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11516&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12564&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11517&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12565&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>273</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[0.004830918614014084]</t>
         </is>
       </c>
     </row>
@@ -536,17 +612,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13256&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12548&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13257&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12549&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>273</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[0.177776707328467]</t>
         </is>
       </c>
     </row>
@@ -556,17 +646,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12212&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12550&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12213&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12551&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>273</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[0.12414603801115795]</t>
         </is>
       </c>
     </row>
@@ -576,17 +680,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13258&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12552&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13259&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12553&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>273</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[0.019502329490437204]</t>
         </is>
       </c>
     </row>
@@ -596,17 +714,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12214&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12554&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12215&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12555&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>273</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[0.0020778802475545284]</t>
         </is>
       </c>
     </row>
@@ -616,17 +748,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12908&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12568&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12909&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12569&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>273</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[0.16321195815478162]</t>
         </is>
       </c>
     </row>
@@ -636,17 +782,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11862&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12570&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11863&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12571&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>273</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[0.08695620560800271]</t>
         </is>
       </c>
     </row>
@@ -656,17 +816,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12910&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12572&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12911&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12573&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>273</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[0.012082021653477862]</t>
         </is>
       </c>
     </row>
@@ -676,17 +850,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11864&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12574&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11865&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12575&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>273</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[0.001262768759282902]</t>
         </is>
       </c>
     </row>
@@ -696,17 +884,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12610&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12578&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12611&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12579&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>273</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[0.15873820169794567]</t>
         </is>
       </c>
     </row>
@@ -716,17 +918,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11564&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12580&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11565&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12581&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>273</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[0.06723354200132431]</t>
         </is>
       </c>
     </row>
@@ -736,17 +952,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12612&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12582&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12613&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12583&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>273</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[0.008716125995518529]</t>
         </is>
       </c>
     </row>
@@ -756,17 +986,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11566&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12584&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11567&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12585&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>273</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[0.0009012829222237775]</t>
         </is>
       </c>
     </row>
@@ -776,17 +1020,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13306&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12588&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13307&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12589&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>273</v>
+      </c>
+      <c r="F18" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[0.20329455471627486]</t>
         </is>
       </c>
     </row>
@@ -796,17 +1054,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12260&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12590&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12261&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12591&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>273</v>
+      </c>
+      <c r="F19" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[0.16212319337533213]</t>
         </is>
       </c>
     </row>
@@ -816,17 +1088,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13308&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12592&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13309&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12593&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>273</v>
+      </c>
+      <c r="F20" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[0.028153611853855606]</t>
         </is>
       </c>
     </row>
@@ -836,17 +1122,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12262&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12594&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12263&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12595&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>273</v>
+      </c>
+      <c r="F21" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[0.0030447103230539434]</t>
         </is>
       </c>
     </row>
@@ -856,17 +1156,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12958&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12608&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12959&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12609&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>373</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[0.23138978731414508]</t>
         </is>
       </c>
     </row>
@@ -876,17 +1190,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11912&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12610&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11913&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12611&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>373</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[0.2588753192244487]</t>
         </is>
       </c>
     </row>
@@ -896,17 +1224,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12960&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12612&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12961&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12613&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>373</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[0.05869527594203383]</t>
         </is>
       </c>
     </row>
@@ -916,17 +1258,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11914&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12614&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11915&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12615&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>373</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[0.0065832616034620615]</t>
         </is>
       </c>
     </row>
@@ -936,17 +1292,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12656&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12598&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12657&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12599&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>373</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[0.17621758665566117]</t>
         </is>
       </c>
     </row>
@@ -956,17 +1326,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11614&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12600&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11615&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12601&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>373</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[0.1467166795253168]</t>
         </is>
       </c>
     </row>
@@ -976,17 +1360,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12658&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12602&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12659&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12603&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>373</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[0.026254284666254592]</t>
         </is>
       </c>
     </row>
@@ -996,17 +1394,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11616&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12604&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11617&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12605&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>373</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[0.0028594758090456653]</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1428,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13356&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12618&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13357&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12619&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>373</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[0.16010320431582917]</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1462,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12310&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12620&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12311&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12621&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>373</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[0.10781765647506417]</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1496,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13358&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12622&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13359&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12623&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>373</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[0.01653481955589131]</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1530,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12312&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12624&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12313&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12625&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>373</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[0.0017563976876192509]</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1564,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13008&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12628&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13009&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12629&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>373</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[0.08598404694069393]</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1598,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_100000.0Pa_0.001ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11962&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12630&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11963&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12631&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>373</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[0.012089465824510919]</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1632,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13010&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12632&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13011&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12633&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>373</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[0.0012663165686579705]</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1666,779 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_100000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11964&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12636&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11965&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12637&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>373</v>
+      </c>
+      <c r="F37" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[0.20290272014198224]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12638&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12639&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>373</v>
+      </c>
+      <c r="F38" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[0.18525210802793085]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12640&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12641&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>373</v>
+      </c>
+      <c r="F39" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[0.03751924789381805]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12642&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12643&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>373</v>
+      </c>
+      <c r="F40" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[0.00416654769969396]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12654&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12655&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>473</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[0.23290879048605836]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12656&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12657&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>473</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[0.2731586343988537]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12658&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12659&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>473</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[0.07210238540021913]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12660&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12661&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>473</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[0.00832097507697622]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12646&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12647&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>473</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[0.16169439947224173]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12648&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12649&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>473</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[0.03262367064206487]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12650&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12651&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>473</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[0.0036279177848004647]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12664&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12665&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>473</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[0.15868398489028737]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12666&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12667&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>473</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[0.12351981526015329]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12668&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12669&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>473</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[0.020741749012164964]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12670&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12671&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>473</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[0.0022372252368765885]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12674&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12675&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>473</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[0.15342119937482365]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12676&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12677&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>473</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[0.10089765736980702]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12678&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12679&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>473</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[0.015265927554187065]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12680&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12681&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>473</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[0.001618515727933115]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12684&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12685&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>473</v>
+      </c>
+      <c r="F56" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[0.20363150061918026]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12686&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12687&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>473</v>
+      </c>
+      <c r="F57" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[0.19891433092604868]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12688&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12689&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>473</v>
+      </c>
+      <c r="F58" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[0.04631430423462268]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12690&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12691&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>473</v>
+      </c>
+      <c r="F59" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[0.005274366398971518]</t>
         </is>
       </c>
     </row>

--- a/VoelkenrathMA/query_results/query_5_results.xlsx
+++ b/VoelkenrathMA/query_results/query_5_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,31 +612,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12548&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12566&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12549&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12567&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>273</v>
       </c>
       <c r="F6" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.177776707328467]</t>
+          <t>[0.0004874166448067785]</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12550&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12548&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12551&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12549&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -666,11 +666,11 @@
         <v>1000000</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[0.12414603801115795]</t>
+          <t>[0.177776707328467]</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12552&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12550&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12553&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12551&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -700,11 +700,11 @@
         <v>1000000</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.019502329490437204]</t>
+          <t>[0.12414603801115795]</t>
         </is>
       </c>
     </row>
@@ -714,17 +714,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12554&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12552&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12555&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12553&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -734,11 +734,11 @@
         <v>1000000</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.0020778802475545284]</t>
+          <t>[0.019502329490437204]</t>
         </is>
       </c>
     </row>
@@ -748,31 +748,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12568&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12554&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12569&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12555&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>273</v>
       </c>
       <c r="F10" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.16321195815478162]</t>
+          <t>[0.0020778802475545284]</t>
         </is>
       </c>
     </row>
@@ -782,31 +782,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12570&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12556&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12571&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12557&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>273</v>
       </c>
       <c r="F11" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.08695620560800271]</t>
+          <t>[0.00020919639891033847]</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12572&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12568&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12573&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12569&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -836,11 +836,11 @@
         <v>2000000</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0.012082021653477862]</t>
+          <t>[0.16321195815478162]</t>
         </is>
       </c>
     </row>
@@ -850,17 +850,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12574&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12570&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12575&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12571&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -870,11 +870,11 @@
         <v>2000000</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.001262768759282902]</t>
+          <t>[0.08695620560800271]</t>
         </is>
       </c>
     </row>
@@ -884,31 +884,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12578&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12572&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12579&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12573&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>273</v>
       </c>
       <c r="F14" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[0.15873820169794567]</t>
+          <t>[0.012082021653477862]</t>
         </is>
       </c>
     </row>
@@ -918,31 +918,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12580&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12574&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12581&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12575&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>273</v>
       </c>
       <c r="F15" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[0.06723354200132431]</t>
+          <t>[0.001262768759282902]</t>
         </is>
       </c>
     </row>
@@ -952,31 +952,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12582&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12576&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12583&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12577&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>273</v>
       </c>
       <c r="F16" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0.008716125995518529]</t>
+          <t>[0.0001268632481160282]</t>
         </is>
       </c>
     </row>
@@ -986,31 +986,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12584&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12588&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12585&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12589&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>273</v>
       </c>
       <c r="F17" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[0.0009012829222237775]</t>
+          <t>[0.20329455471627486]</t>
         </is>
       </c>
     </row>
@@ -1020,17 +1020,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12588&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12590&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12589&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12591&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1040,11 +1040,11 @@
         <v>500000</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0.20329455471627486]</t>
+          <t>[0.16212319337533213]</t>
         </is>
       </c>
     </row>
@@ -1054,17 +1054,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12590&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12592&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12591&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12593&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1074,11 +1074,11 @@
         <v>500000</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[0.16212319337533213]</t>
+          <t>[0.028153611853855606]</t>
         </is>
       </c>
     </row>
@@ -1088,17 +1088,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12592&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12594&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12593&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12595&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1108,11 +1108,11 @@
         <v>500000</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[0.028153611853855606]</t>
+          <t>[0.0030447103230539434]</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12594&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12596&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12595&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12597&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1142,11 +1142,11 @@
         <v>500000</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[0.0030447103230539434]</t>
+          <t>[0.0003070367452817648]</t>
         </is>
       </c>
     </row>
@@ -1292,31 +1292,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12598&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12616&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12599&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12617&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>373</v>
       </c>
       <c r="F26" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0.17621758665566117]</t>
+          <t>[0.0006663845705676323]</t>
         </is>
       </c>
     </row>
@@ -1326,17 +1326,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12600&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12598&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12601&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12599&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1346,11 +1346,11 @@
         <v>1000000</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0.1467166795253168]</t>
+          <t>[0.17621758665566117]</t>
         </is>
       </c>
     </row>
@@ -1360,17 +1360,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12602&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12600&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12603&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12601&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1380,11 +1380,11 @@
         <v>1000000</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0.026254284666254592]</t>
+          <t>[0.1467166795253168]</t>
         </is>
       </c>
     </row>
@@ -1394,17 +1394,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12604&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12602&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12605&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12603&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1414,11 +1414,11 @@
         <v>1000000</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0.0028594758090456653]</t>
+          <t>[0.026254284666254592]</t>
         </is>
       </c>
     </row>
@@ -1428,31 +1428,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12618&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12604&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12619&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12605&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>373</v>
       </c>
       <c r="F30" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0.16010320431582917]</t>
+          <t>[0.0028594758090456653]</t>
         </is>
       </c>
     </row>
@@ -1462,31 +1462,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12620&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12606&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12621&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12607&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>373</v>
       </c>
       <c r="F31" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0.10781765647506417]</t>
+          <t>[0.0002886180585539339]</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12622&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12618&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12623&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12619&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1516,11 +1516,11 @@
         <v>2000000</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.01653481955589131]</t>
+          <t>[0.16010320431582917]</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12624&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12620&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12625&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12621&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1550,11 +1550,11 @@
         <v>2000000</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0.0017563976876192509]</t>
+          <t>[0.10781765647506417]</t>
         </is>
       </c>
     </row>
@@ -1564,31 +1564,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12628&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12622&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12629&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12623&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>373</v>
       </c>
       <c r="F34" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0.08598404694069393]</t>
+          <t>[0.01653481955589131]</t>
         </is>
       </c>
     </row>
@@ -1598,31 +1598,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12630&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12624&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12631&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12625&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>373</v>
       </c>
       <c r="F35" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0.012089465824510919]</t>
+          <t>[0.0017563976876192509]</t>
         </is>
       </c>
     </row>
@@ -1632,31 +1632,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12632&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12626&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12633&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12627&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>373</v>
       </c>
       <c r="F36" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[0.0012663165686579705]</t>
+          <t>[0.00017677501738765222]</t>
         </is>
       </c>
     </row>
@@ -1802,31 +1802,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12654&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12644&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12655&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12645&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>473</v>
+        <v>373</v>
       </c>
       <c r="F41" t="n">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0.23290879048605836]</t>
+          <t>[0.00042146869557606364]</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12656&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12654&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12657&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12655&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1856,11 +1856,11 @@
         <v>100000</v>
       </c>
       <c r="G42" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0.2731586343988537]</t>
+          <t>[0.23290879048605836]</t>
         </is>
       </c>
     </row>
@@ -1870,17 +1870,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12658&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12656&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12659&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12657&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1890,11 +1890,11 @@
         <v>100000</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[0.07210238540021913]</t>
+          <t>[0.2731586343988537]</t>
         </is>
       </c>
     </row>
@@ -1904,17 +1904,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12660&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12658&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12661&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12659&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1924,11 +1924,11 @@
         <v>100000</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0.00832097507697622]</t>
+          <t>[0.07210238540021913]</t>
         </is>
       </c>
     </row>
@@ -1938,31 +1938,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12646&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12660&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12647&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12661&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>473</v>
       </c>
       <c r="F45" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G45" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0.16169439947224173]</t>
+          <t>[0.00832097507697622]</t>
         </is>
       </c>
     </row>
@@ -1972,31 +1972,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12648&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12662&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12649&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12663&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>473</v>
       </c>
       <c r="F46" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0.03262367064206487]</t>
+          <t>[0.0008450148216933831]</t>
         </is>
       </c>
     </row>
@@ -2006,17 +2006,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12650&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12646&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12651&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12647&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2026,11 +2026,11 @@
         <v>1000000</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[0.0036279177848004647]</t>
+          <t>[0.16169439947224173]</t>
         </is>
       </c>
     </row>
@@ -2040,31 +2040,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12664&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12648&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12665&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12649&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>473</v>
       </c>
       <c r="F48" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0.15868398489028737]</t>
+          <t>[0.03262367064206487]</t>
         </is>
       </c>
     </row>
@@ -2074,31 +2074,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12666&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12650&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12667&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12651&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>473</v>
       </c>
       <c r="F49" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0.12351981526015329]</t>
+          <t>[0.0036279177848004647]</t>
         </is>
       </c>
     </row>
@@ -2108,31 +2108,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12668&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12652&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12669&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12653&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>473</v>
       </c>
       <c r="F50" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0.020741749012164964]</t>
+          <t>[0.00036709567694724203]</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12670&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12664&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12671&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12665&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2162,11 +2162,11 @@
         <v>2000000</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[0.0022372252368765885]</t>
+          <t>[0.15868398489028737]</t>
         </is>
       </c>
     </row>
@@ -2176,31 +2176,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12674&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12666&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12675&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12667&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>473</v>
       </c>
       <c r="F52" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0.15342119937482365]</t>
+          <t>[0.12351981526015329]</t>
         </is>
       </c>
     </row>
@@ -2210,31 +2210,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12676&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12668&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12677&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12669&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>473</v>
       </c>
       <c r="F53" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[0.10089765736980702]</t>
+          <t>[0.020741749012164964]</t>
         </is>
       </c>
     </row>
@@ -2244,31 +2244,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12678&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12670&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12679&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12671&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>473</v>
       </c>
       <c r="F54" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[0.015265927554187065]</t>
+          <t>[0.0022372252368765885]</t>
         </is>
       </c>
     </row>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12680&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12672&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12681&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12673&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>473</v>
       </c>
       <c r="F55" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0.001618515727933115]</t>
+          <t>[0.0002255657400788596]</t>
         </is>
       </c>
     </row>
@@ -2439,6 +2439,2080 @@
       <c r="H59" t="inlineStr">
         <is>
           <t>[0.005274366398971518]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12692&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12693&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>473</v>
+      </c>
+      <c r="F60" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[0.0005351653996562235]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12704&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12705&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>573</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[0.23432293858531103]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12706&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12707&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>573</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[0.2805054738691433]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12708&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12709&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>573</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[0.0846670840905251]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12710&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12711&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>573</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[0.010045335761376903]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12712&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12713&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>573</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[0.0010234223911314104]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12694&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12695&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>573</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[0.1766715679000702]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12696&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12697&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>573</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[0.1714987985207375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12698&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12699&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>573</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[0.03868408736191441]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12700&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12701&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>573</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[0.004388289072228355]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12702&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12703&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>573</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[0.0004451336031160926]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12714&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12715&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>573</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[0.15821403594955052]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12716&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12717&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>573</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[0.13542125948337413]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12718&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12719&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>573</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[0.024773416907022842]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12720&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12721&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>573</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[0.0027115041923196194]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12722&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12723&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>573</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[0.00027385989464797473]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12734&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12735&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>573</v>
+      </c>
+      <c r="F76" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[0.204654504237902]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12736&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12737&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>573</v>
+      </c>
+      <c r="F77" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[0.2066891665449338]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12738&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12739&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>573</v>
+      </c>
+      <c r="F78" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[0.05462033613516611]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12740&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12741&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>573</v>
+      </c>
+      <c r="F79" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[0.006371913344057098]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12742&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12743&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>573</v>
+      </c>
+      <c r="F80" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[0.0006484925792729547]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12754&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12755&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>673</v>
+      </c>
+      <c r="F81" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[0.2355665505944714]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12756&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12757&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>673</v>
+      </c>
+      <c r="F82" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[0.2838630835136023]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12758&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12759&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>673</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[0.09646011247684003]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12760&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12761&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>673</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[0.011756913668819159]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12762&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12763&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>673</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[0.0012016517014853353]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12744&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12745&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>673</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>[0.17737203886152383]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12746&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12747&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>673</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>[0.17776356751225877]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12748&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12749&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>673</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>[0.044474552539985224]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12750&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12751&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>673</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>[0.005142533133996306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12752&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12753&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>673</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>[0.0005229219596735148]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12764&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12765&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>673</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>[0.15823396937187098]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12766&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12767&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>673</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>[0.14440412996647278]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12768&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12769&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>673</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>[0.028660341395908145]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12770&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12771&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>673</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>[0.0031815460573201507]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12772&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12773&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>673</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>[0.00032188750659942574]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12784&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12785&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>673</v>
+      </c>
+      <c r="F96" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>[0.20570498620017827]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12786&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12787&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>673</v>
+      </c>
+      <c r="F97" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>[0.21083239361513376]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12788&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12789&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>673</v>
+      </c>
+      <c r="F98" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>[0.06248926434008289]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12790&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12791&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>673</v>
+      </c>
+      <c r="F99" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>[0.007460675583026261]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12792&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12793&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>673</v>
+      </c>
+      <c r="F100" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>[0.0007615898603872785]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12804&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12805&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>773</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>[0.23664857573197381]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12806&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12807&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>773</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>[0.28495758952714206]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12808&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12809&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>773</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>[0.10754214344116074]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12810&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12811&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>773</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>[0.013456038678780369]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12812&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12813&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>773</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>[0.0013797233106551123]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12794&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12795&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>773</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>[0.17811706752593276]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12796&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12797&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>773</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>[0.1816207009609168]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12798&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12799&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>773</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>[0.05002102619677241]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12800&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12801&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>773</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>[0.005891563817232453]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12802&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12803&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>773</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>[0.0006005478359163429]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12814&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12815&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>773</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>[0.15850220940282858]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12816&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12817&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>773</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>[0.15112800597711534]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12818&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12819&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>773</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>[0.032419758341439744]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12820&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12821&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>773</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>[0.0036484096446826333]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12822&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12823&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>773</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>[0.00036975321955866244]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12834&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12835&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>773</v>
+      </c>
+      <c r="F116" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>[0.20669701235908666]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12836&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12837&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>773</v>
+      </c>
+      <c r="F117" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>[0.21276299232570142]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12838&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12839&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>773</v>
+      </c>
+      <c r="F118" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>[0.0699597469688136]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12840&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12841&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>773</v>
+      </c>
+      <c r="F119" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>[0.008541385659373367]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12842&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12843&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>773</v>
+      </c>
+      <c r="F120" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>[0.0008745214771720967]</t>
         </is>
       </c>
     </row>

--- a/VoelkenrathMA/query_results/query_5_results.xlsx
+++ b/VoelkenrathMA/query_results/query_5_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12906&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12558&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12907&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12559&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -500,7 +500,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.1409836583663785]</t>
+          <t>[0.23014681776527568]</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12908&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12560&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12909&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12561&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[0.0982642784936363]</t>
+          <t>[0.23259718329292703]</t>
         </is>
       </c>
     </row>
@@ -544,17 +544,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12910&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12562&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12911&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12563&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[0.015426786810405817]</t>
+          <t>[0.044358884779051935]</t>
         </is>
       </c>
     </row>
@@ -578,31 +578,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12896&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12564&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12897&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12565&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>273</v>
       </c>
       <c r="F5" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[0.1047488649864422]</t>
+          <t>[0.004830918614014084]</t>
         </is>
       </c>
     </row>
@@ -612,31 +612,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12898&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12566&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12899&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12567&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>273</v>
       </c>
       <c r="F6" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.021465486006318462]</t>
+          <t>[0.0004874166448067785]</t>
         </is>
       </c>
     </row>
@@ -646,31 +646,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12900&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12608&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12901&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12609&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="F7" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[0.002398126296451044]</t>
+          <t>[0.23138978731414508]</t>
         </is>
       </c>
     </row>
@@ -680,31 +680,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12916&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12610&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12917&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12611&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="F8" t="n">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.07485727873234173]</t>
+          <t>[0.2588753192244487]</t>
         </is>
       </c>
     </row>
@@ -714,31 +714,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12918&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12612&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12919&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12613&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="F9" t="n">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.011418300841289525]</t>
+          <t>[0.05869527594203383]</t>
         </is>
       </c>
     </row>
@@ -748,31 +748,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12920&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12614&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12921&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12615&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="F10" t="n">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.001212871743532527]</t>
+          <t>[0.0065832616034620615]</t>
         </is>
       </c>
     </row>
@@ -782,31 +782,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12936&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12616&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12937&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12617&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="F11" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.12134535385145125]</t>
+          <t>[0.0006663845705676323]</t>
         </is>
       </c>
     </row>
@@ -816,31 +816,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12938&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12654&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12939&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12655&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="F12" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0.03765248280958936]</t>
+          <t>[0.23290879048605836]</t>
         </is>
       </c>
     </row>
@@ -850,31 +850,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12940&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12656&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12941&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12657&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="F13" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.004544329578488036]</t>
+          <t>[0.2731586343988537]</t>
         </is>
       </c>
     </row>
@@ -884,31 +884,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12956&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12658&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12957&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12659&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>373</v>
+        <v>473</v>
       </c>
       <c r="F14" t="n">
         <v>100000</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[0.1397479003723246]</t>
+          <t>[0.07210238540021913]</t>
         </is>
       </c>
     </row>
@@ -918,31 +918,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12958&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12660&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12959&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12661&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>373</v>
+        <v>473</v>
       </c>
       <c r="F15" t="n">
         <v>100000</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[0.11571187786034987]</t>
+          <t>[0.00832097507697622]</t>
         </is>
       </c>
     </row>
@@ -952,31 +952,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12960&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12662&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12961&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12663&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>373</v>
+        <v>473</v>
       </c>
       <c r="F16" t="n">
         <v>100000</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0.020609993874728002]</t>
+          <t>[0.0008450148216933831]</t>
         </is>
       </c>
     </row>
@@ -986,31 +986,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12946&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12704&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12947&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12705&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="F17" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G17" t="n">
         <v>0.0001</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[0.11376838355962089]</t>
+          <t>[0.23432293858531103]</t>
         </is>
       </c>
     </row>
@@ -1020,31 +1020,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12948&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12706&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12949&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12707&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="F18" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G18" t="n">
         <v>0.001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0.028583620357080997]</t>
+          <t>[0.2805054738691433]</t>
         </is>
       </c>
     </row>
@@ -1054,31 +1054,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12950&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12708&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12951&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12709&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="F19" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G19" t="n">
         <v>0.01</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[0.0033119214272428147]</t>
+          <t>[0.0846670840905251]</t>
         </is>
       </c>
     </row>
@@ -1088,31 +1088,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12966&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12710&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12967&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12711&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="F20" t="n">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[0.09026144181860998]</t>
+          <t>[0.010045335761376903]</t>
         </is>
       </c>
     </row>
@@ -1122,31 +1122,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12968&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12712&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12969&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12713&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="F21" t="n">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[0.01571381181750554]</t>
+          <t>[0.0010234223911314104]</t>
         </is>
       </c>
     </row>
@@ -1156,31 +1156,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12970&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12754&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12971&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12755&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>373</v>
+        <v>673</v>
       </c>
       <c r="F22" t="n">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[0.0017070493940038484]</t>
+          <t>[0.2355665505944714]</t>
         </is>
       </c>
     </row>
@@ -1190,31 +1190,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12986&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12756&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12987&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12757&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>373</v>
+        <v>673</v>
       </c>
       <c r="F23" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[0.12166278934003547]</t>
+          <t>[0.2838630835136023]</t>
         </is>
       </c>
     </row>
@@ -1224,31 +1224,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12988&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12758&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12989&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12759&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>373</v>
+        <v>673</v>
       </c>
       <c r="F24" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[0.04856528803506119]</t>
+          <t>[0.09646011247684003]</t>
         </is>
       </c>
     </row>
@@ -1258,31 +1258,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12990&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12760&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12991&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12761&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>373</v>
+        <v>673</v>
       </c>
       <c r="F25" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[0.0062005921412426725]</t>
+          <t>[0.011756913668819159]</t>
         </is>
       </c>
     </row>
@@ -1292,31 +1292,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_100000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13006&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12762&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13007&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12763&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>473</v>
+        <v>673</v>
       </c>
       <c r="F26" t="n">
         <v>100000</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0.13966834623493815]</t>
+          <t>[0.0012016517014853353]</t>
         </is>
       </c>
     </row>
@@ -1326,31 +1326,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13008&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12804&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13009&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12805&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>473</v>
+        <v>773</v>
       </c>
       <c r="F27" t="n">
         <v>100000</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0.12754950166034054]</t>
+          <t>[0.23664857573197381]</t>
         </is>
       </c>
     </row>
@@ -1360,31 +1360,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13010&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12806&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13011&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12807&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>473</v>
+        <v>773</v>
       </c>
       <c r="F28" t="n">
         <v>100000</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0.025553311161326916]</t>
+          <t>[0.28495758952714206]</t>
         </is>
       </c>
     </row>
@@ -1394,31 +1394,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_1000000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12996&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12808&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12997&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12809&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>473</v>
+        <v>773</v>
       </c>
       <c r="F29" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0.11719995302724098]</t>
+          <t>[0.10754214344116074]</t>
         </is>
       </c>
     </row>
@@ -1428,31 +1428,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_1000000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12998&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12810&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12999&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12811&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>473</v>
+        <v>773</v>
       </c>
       <c r="F30" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0.03506589261797721]</t>
+          <t>[0.013456038678780369]</t>
         </is>
       </c>
     </row>
@@ -1462,609 +1462,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13000&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12812&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13001&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12813&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>473</v>
+        <v>773</v>
       </c>
       <c r="F31" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0.004201132560751094]</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_2000000.0Pa_0.0001ms_wd</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13016&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13017&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>473</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>[0.10024626032926122]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_2000000.0Pa_0.001ms_wd</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13018&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13019&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>473</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>[0.019676518387339567]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_2000000.0Pa_0.01ms_wd</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13020&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13021&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>473</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>[0.0021821080322185524]</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_500000.0Pa_0.0001ms_wd</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13034&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13035&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>473</v>
-      </c>
-      <c r="F35" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>[0.1202692805035546]</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_500000.0Pa_0.001ms_wd</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13036&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13037&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>473</v>
-      </c>
-      <c r="F36" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>[0.05810884228736043]</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_500000.0Pa_0.01ms_wd</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13038&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13039&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>473</v>
-      </c>
-      <c r="F37" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>[0.007813559146755779]</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_100000.0Pa_0.0001ms_wd</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13052&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13053&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>573</v>
-      </c>
-      <c r="F38" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>[0.14004224983650923]</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_100000.0Pa_0.001ms_wd</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13054&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13055&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>573</v>
-      </c>
-      <c r="F39" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>[0.13541819230015395]</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_100000.0Pa_0.01ms_wd</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13056&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13057&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>573</v>
-      </c>
-      <c r="F40" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>[0.030280986201198023]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_1000000.0Pa_0.001ms_wd</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13044&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13045&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>573</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>[0.04105257490253418]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_1000000.0Pa_0.01ms_wd</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13046&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13047&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>573</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>[0.005074868440473446]</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_2000000.0Pa_0.0001ms_wd</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13062&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13063&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>573</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>[0.1067420730130489]</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_2000000.0Pa_0.001ms_wd</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13064&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13065&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>573</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>[0.023415184121028852]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_2000000.0Pa_0.01ms_wd</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13066&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13067&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>573</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>[0.0026477070865201027]</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_500000.0Pa_0.0001ms_wd</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13082&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13083&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>573</v>
-      </c>
-      <c r="F46" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>[0.11882229965238024]</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_500000.0Pa_0.001ms_wd</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13084&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13085&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>573</v>
-      </c>
-      <c r="F47" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>[0.06651803489977609]</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_500000.0Pa_0.01ms_wd</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13086&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13087&amp;version=DRAFT</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>573</v>
-      </c>
-      <c r="F48" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>[0.009392533426952638]</t>
+          <t>[0.0013797233106551123]</t>
         </is>
       </c>
     </row>
